--- a/Fulton Hogan Vic Services - Geelong/35404/ITP-005- Off-Structure Bored Piles.xlsx
+++ b/Fulton Hogan Vic Services - Geelong/35404/ITP-005- Off-Structure Bored Piles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Barwon SW Region\19 External Works\2 - Projects\7ABE0260 - Spout Creek Bridge Replacement GOR\8 - Quality\1.2 - ITPs, Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F62C905-EFFC-4058-8CE0-44C15850C82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FB6F45-EBED-4854-B417-979ECD4F9DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,10 +356,6 @@
     <t>Project Engineer</t>
   </si>
   <si>
-    <t xml:space="preserve">Integrity testing shall be carried out in accordance with test methods specifed in AS 2159. 
-Integrity testing shall not be carried out until the concrete has achieved a compressive strength of 25MPa and not before 7 days after casting of the pile. </t>
-  </si>
-  <si>
     <t>The contractor shall submit the concrete mix design details for review by the Superintendent not less than 4 weeks prior to the placement of concrete.
 Manufacturers and suppliers of steel reinforcement materials must be in posession of a current certificate of approval, issued by the ACRS.
 Reinforcement shall be checked upon delivery and placed on timbers adjacent to site fixing.
@@ -494,6 +490,10 @@
   </si>
   <si>
     <t>Project Engineer /Superintendent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrity testing shall be carried out in accordance with test methods specifed in AS 2159. All testing shall be undertaken by a prequalified consultant in accordance with the VR scheme for prequalificaiton and approval of the Superintendent. The contractor shall provide details of the pile testing consultant to the Superintendent for review at least 2 weeks prior to the testing.
+Integrity testing shall not be carried out until the concrete has achieved a compressive strength of 25MPa and not before 7 days after casting of the pile. </t>
   </si>
 </sst>
 </file>
@@ -1584,15 +1584,144 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1607,135 +1736,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2343,7 +2343,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B28" sqref="B28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2369,39 +2369,39 @@
       <c r="A2" s="9"/>
       <c r="B2" s="40"/>
       <c r="C2" s="42"/>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="160" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" s="161"/>
-      <c r="N2" s="162"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="160"/>
     </row>
     <row r="3" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41"/>
       <c r="B3" s="98"/>
       <c r="C3" s="43"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
       <c r="L3" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="170"/>
-      <c r="N3" s="171"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
     </row>
     <row r="4" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="38"/>
@@ -2420,10 +2420,10 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="105" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="175"/>
+      <c r="B5" s="152"/>
       <c r="C5" s="118" t="s">
         <v>72</v>
       </c>
@@ -2448,18 +2448,18 @@
       <c r="N5" s="104"/>
     </row>
     <row r="6" spans="1:14" s="105" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="176" t="s">
+      <c r="A6" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="177"/>
-      <c r="C6" s="178" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="179"/>
-      <c r="E6" s="165" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="166"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="156" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="157"/>
+      <c r="E6" s="163" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="164"/>
       <c r="G6" s="129" t="s">
         <v>11</v>
       </c>
@@ -2469,31 +2469,31 @@
       <c r="I6" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="172" t="s">
+      <c r="J6" s="170" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="173"/>
+      <c r="K6" s="171"/>
       <c r="L6" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="172" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" s="173"/>
+      <c r="M6" s="170" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="171"/>
     </row>
     <row r="7" spans="1:14" s="105" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="177"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="167" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="168"/>
+      <c r="E7" s="165" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="166"/>
       <c r="G7" s="131"/>
       <c r="H7" s="131"/>
       <c r="I7" s="132"/>
@@ -2508,10 +2508,10 @@
       <c r="B8" s="117"/>
       <c r="C8" s="108"/>
       <c r="D8" s="107"/>
-      <c r="E8" s="169" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="168"/>
+      <c r="E8" s="167" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="166"/>
       <c r="G8" s="131" t="s">
         <v>1</v>
       </c>
@@ -2532,10 +2532,10 @@
       <c r="B9" s="110"/>
       <c r="C9" s="111"/>
       <c r="D9" s="111"/>
-      <c r="E9" s="140" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="141"/>
+      <c r="E9" s="184" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="185"/>
       <c r="G9" s="137" t="s">
         <v>3</v>
       </c>
@@ -2577,17 +2577,17 @@
       <c r="A11" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="148">
+      <c r="B11" s="155">
         <v>1</v>
       </c>
-      <c r="C11" s="148"/>
+      <c r="C11" s="155"/>
       <c r="D11" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
       <c r="I11" s="44"/>
       <c r="J11" s="93" t="s">
         <v>52</v>
@@ -2617,36 +2617,36 @@
       <c r="A13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="156" t="s">
+      <c r="C13" s="186"/>
+      <c r="D13" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="152" t="s">
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="175" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="154" t="s">
+      <c r="K13" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="155"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="178"/>
     </row>
     <row r="14" spans="1:14" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="145"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="188"/>
       <c r="D14" s="60" t="s">
         <v>6</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="H14" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="153"/>
+      <c r="I14" s="176"/>
       <c r="J14" s="64" t="s">
         <v>51</v>
       </c>
@@ -2683,10 +2683,10 @@
       <c r="A15" s="90">
         <v>1</v>
       </c>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="159"/>
+      <c r="C15" s="183"/>
       <c r="D15" s="80"/>
       <c r="E15" s="80"/>
       <c r="F15" s="79"/>
@@ -2703,10 +2703,10 @@
       <c r="A16" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="189" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="147"/>
+      <c r="C16" s="190"/>
       <c r="D16" s="113" t="s">
         <v>62</v>
       </c>
@@ -2741,10 +2741,10 @@
       <c r="A17" s="16">
         <v>1.2</v>
       </c>
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="151"/>
+      <c r="C17" s="174"/>
       <c r="D17" s="115" t="s">
         <v>62</v>
       </c>
@@ -2779,24 +2779,24 @@
       <c r="A18" s="16">
         <v>1.3</v>
       </c>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="151"/>
+      <c r="C18" s="174"/>
       <c r="D18" s="115" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="126" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G18" s="74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H18" s="75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I18" s="76" t="s">
         <v>28</v>
@@ -2815,10 +2815,10 @@
       <c r="A19" s="90">
         <v>2</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="159"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="86"/>
       <c r="E19" s="86"/>
       <c r="F19" s="82"/>
@@ -2835,10 +2835,10 @@
       <c r="A20" s="17">
         <v>2.1</v>
       </c>
-      <c r="B20" s="149" t="s">
+      <c r="B20" s="172" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="150"/>
+      <c r="C20" s="173"/>
       <c r="D20" s="115" t="s">
         <v>62</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>78</v>
       </c>
       <c r="G20" s="74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H20" s="75" t="s">
         <v>67</v>
@@ -2873,18 +2873,18 @@
       <c r="A21" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B21" s="149" t="s">
+      <c r="B21" s="172" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="150"/>
+      <c r="C21" s="173"/>
       <c r="D21" s="115" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="126" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="74" t="s">
         <v>64</v>
@@ -2911,10 +2911,10 @@
       <c r="A22" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B22" s="149" t="s">
+      <c r="B22" s="172" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="151"/>
+      <c r="C22" s="174"/>
       <c r="D22" s="115" t="s">
         <v>66</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>88</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G22" s="74" t="s">
         <v>89</v>
@@ -2949,18 +2949,18 @@
       <c r="A23" s="17">
         <v>2.4</v>
       </c>
-      <c r="B23" s="149" t="s">
+      <c r="B23" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="150"/>
+      <c r="C23" s="173"/>
       <c r="D23" s="115" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="124" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" s="74" t="s">
         <v>64</v>
@@ -2972,7 +2972,7 @@
         <v>28</v>
       </c>
       <c r="J23" s="125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K23" s="94"/>
       <c r="L23" s="88"/>
@@ -2985,18 +2985,18 @@
       <c r="A24" s="17">
         <v>2.5</v>
       </c>
-      <c r="B24" s="149" t="s">
+      <c r="B24" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="150"/>
+      <c r="C24" s="173"/>
       <c r="D24" s="115" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="123" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G24" s="74" t="s">
         <v>64</v>
@@ -3023,18 +3023,18 @@
       <c r="A25" s="17">
         <v>2.6</v>
       </c>
-      <c r="B25" s="149" t="s">
+      <c r="B25" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="150"/>
+      <c r="C25" s="173"/>
       <c r="D25" s="115" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="128" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G25" s="74" t="s">
         <v>64</v>
@@ -3046,7 +3046,7 @@
         <v>28</v>
       </c>
       <c r="J25" s="125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K25" s="88" t="s">
         <v>55</v>
@@ -3061,10 +3061,10 @@
       <c r="A26" s="90">
         <v>3</v>
       </c>
-      <c r="B26" s="158" t="s">
+      <c r="B26" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="159"/>
+      <c r="C26" s="183"/>
       <c r="D26" s="86"/>
       <c r="E26" s="86"/>
       <c r="F26" s="82"/>
@@ -3081,18 +3081,18 @@
       <c r="A27" s="17">
         <v>3.1</v>
       </c>
-      <c r="B27" s="149" t="s">
+      <c r="B27" s="172" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="150"/>
+      <c r="C27" s="173"/>
       <c r="D27" s="115" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="127" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G27" s="74" t="s">
         <v>36</v>
@@ -3115,22 +3115,22 @@
       </c>
       <c r="N27" s="89"/>
     </row>
-    <row r="28" spans="1:14" s="87" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="87" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>3.2</v>
       </c>
-      <c r="B28" s="149" t="s">
+      <c r="B28" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="150"/>
+      <c r="C28" s="173"/>
       <c r="D28" s="115" t="s">
         <v>86</v>
       </c>
       <c r="E28" s="121" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="F28" s="73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G28" s="74" t="s">
         <v>36</v>
@@ -3173,21 +3173,21 @@
     </row>
     <row r="30" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
-      <c r="B30" s="181" t="s">
+      <c r="B30" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="181"/>
-      <c r="L30" s="181"/>
-      <c r="M30" s="181"/>
-      <c r="N30" s="182"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="142"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
@@ -3246,10 +3246,10 @@
       <c r="N33" s="36"/>
     </row>
     <row r="34" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="180" t="s">
+      <c r="A34" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="180"/>
+      <c r="B34" s="140"/>
       <c r="C34" s="68"/>
       <c r="D34" s="69"/>
       <c r="E34" s="68"/>
@@ -3270,26 +3270,26 @@
       <c r="B35" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="187" t="s">
+      <c r="C35" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="187"/>
-      <c r="E35" s="188"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="148"/>
       <c r="F35" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="185" t="s">
+      <c r="G35" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="185"/>
-      <c r="I35" s="185" t="s">
+      <c r="H35" s="145"/>
+      <c r="I35" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="J35" s="185"/>
-      <c r="K35" s="185"/>
-      <c r="L35" s="185"/>
-      <c r="M35" s="185"/>
-      <c r="N35" s="186"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="146"/>
     </row>
     <row r="36" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="48" t="s">
@@ -3298,26 +3298,26 @@
       <c r="B36" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="189" t="s">
+      <c r="C36" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="189"/>
-      <c r="E36" s="190"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="150"/>
       <c r="F36" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="185" t="s">
+      <c r="G36" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="185"/>
-      <c r="I36" s="185" t="s">
+      <c r="H36" s="145"/>
+      <c r="I36" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="J36" s="185"/>
-      <c r="K36" s="185"/>
-      <c r="L36" s="185"/>
-      <c r="M36" s="185"/>
-      <c r="N36" s="186"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="145"/>
+      <c r="M36" s="145"/>
+      <c r="N36" s="146"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="46" t="s">
@@ -3326,26 +3326,26 @@
       <c r="B37" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="187" t="s">
+      <c r="C37" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="188"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="148"/>
       <c r="F37" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="185" t="s">
+      <c r="G37" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="185"/>
-      <c r="I37" s="185" t="s">
+      <c r="H37" s="145"/>
+      <c r="I37" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="185"/>
-      <c r="K37" s="185"/>
-      <c r="L37" s="185"/>
-      <c r="M37" s="185"/>
-      <c r="N37" s="186"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="145"/>
+      <c r="L37" s="145"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="146"/>
     </row>
     <row r="38" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="50" t="s">
@@ -3354,11 +3354,11 @@
       <c r="B38" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="183" t="s">
+      <c r="C38" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="183"/>
-      <c r="E38" s="184"/>
+      <c r="D38" s="143"/>
+      <c r="E38" s="144"/>
       <c r="F38" s="52"/>
       <c r="G38" s="53"/>
       <c r="H38" s="54"/>
@@ -3387,31 +3387,11 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="B30:N30"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="D2:K3"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B20:C20"/>
@@ -3427,11 +3407,31 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="D2:K3"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="B30:N30"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
   </mergeCells>
   <conditionalFormatting sqref="K16:N28">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
